--- a/examples/example.xlsx
+++ b/examples/example.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
   <si>
     <t>Key</t>
   </si>
@@ -42,16 +42,28 @@
   <si>
     <t>world!</t>
   </si>
+  <si>
+    <t>hello1</t>
+  </si>
+  <si>
+    <t>world1</t>
+  </si>
+  <si>
+    <t>hello2</t>
+  </si>
+  <si>
+    <t>world2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -75,6 +87,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -83,6 +133,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -91,92 +157,32 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -188,26 +194,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -234,55 +246,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,13 +402,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,114 +414,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -437,17 +449,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -478,6 +479,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -489,17 +499,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,9 +520,29 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,181 +561,160 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1100,13 +1098,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="2" max="2" width="16.4191176470588" customWidth="1"/>
@@ -1114,7 +1112,7 @@
     <col min="4" max="4" width="13.2279411764706" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1127,9 +1125,8 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5"/>
     </row>
-    <row r="2" ht="18" spans="1:5">
+    <row r="2" ht="18" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1142,9 +1139,8 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5"/>
     </row>
-    <row r="3" ht="18" spans="1:5">
+    <row r="3" ht="18" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1157,22 +1153,67 @@
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="5"/>
+    <row r="4" ht="18" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" ht="18" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" ht="18" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" ht="18" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="4"/>
+      <c r="D11" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A4:C4"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/examples/example.xlsx
+++ b/examples/example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11860"/>
+    <workbookView windowWidth="28800" windowHeight="11980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
   <si>
-    <t>Key</t>
+    <t>key</t>
   </si>
   <si>
     <t>zh_CN</t>
@@ -60,10 +60,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -80,6 +80,37 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -87,9 +118,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,120 +172,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,6 +185,51 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -252,31 +252,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,145 +420,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,41 +503,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -561,151 +526,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1101,7 +1101,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8" outlineLevelCol="3"/>
